--- a/biology/Botanique/Botryosphaeriaceae/Botryosphaeriaceae.xlsx
+++ b/biology/Botanique/Botryosphaeriaceae/Botryosphaeriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Botryosphaeriaceae sont une famille de champignons ascomycètes de l'ordre des Botryosphaeriales. Au fil du temps, la famille des Botryosphaeriaceae, et les genres rattachés, en particulier Botryosphaeria qui est le genre-type, ont connu de nombreuses révisions taxinomiques. La famille contenait trois genres lors de sa création en 1918, mais l'introduction de nouveaux genres, ainsi que l'ajout de noms séparés pour les formes sexuées et asexuées, ont abouti à retenir au moins 78 genres au sein de cette famille vers 2006. Une étude de 2016 recense 23 genres et 187 espèces connus en culture[2].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Botryosphaeriaceae sont une famille de champignons ascomycètes de l'ordre des Botryosphaeriales. Au fil du temps, la famille des Botryosphaeriaceae, et les genres rattachés, en particulier Botryosphaeria qui est le genre-type, ont connu de nombreuses révisions taxinomiques. La famille contenait trois genres lors de sa création en 1918, mais l'introduction de nouveaux genres, ainsi que l'ajout de noms séparés pour les formes sexuées et asexuées, ont abouti à retenir au moins 78 genres au sein de cette famille vers 2006. Une étude de 2016 recense 23 genres et 187 espèces connus en culture.  
 Cette famille comprend des espèces endophytes, saprobes et agents pathogènes des plantes.
 Ces champignons sont très cosmopolites et polyphages. On les a signalés partout dans le monde, dans toutes les zones climatiques (sauf les régions polaires), sur divers hôtes principalement des plantes ligneuses, dont la vigne. 
-21 espèces sont considérées comme pathogènes pour la vigne, notamment en France dans les genres Botryosphaeria, Diplodia, Lasiodiplodia, Neofusiccocum, Spencermatinsia[3].
+21 espèces sont considérées comme pathogènes pour la vigne, notamment en France dans les genres Botryosphaeria, Diplodia, Lasiodiplodia, Neofusiccocum, Spencermatinsia.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (20 février 2021)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (20 février 2021) :
 Alanphillipsia Crous &amp; M.J. Wingf., 2013
 Auerswaldia Rabenh., 1857
 Barriopsis A.J.L. Phillips, A. Alves &amp; Crous, 2008
